--- a/jiawei_trupath_csv/MOR_arr1_normalize_deer+arr_scratch.xlsx
+++ b/jiawei_trupath_csv/MOR_arr1_normalize_deer+arr_scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwangab/Dropbox/My Mac (Haoqing’s MacBook Pro)/Documents/GitHub/mglur5_MWC/jiawei_trupath_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF674DC-E055-6746-BA32-07ADAEC2C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582075C4-7A98-C944-B19C-4F949D2CF718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33940" yWindow="1740" windowWidth="28800" windowHeight="16560" xr2:uid="{0FA298ED-DCA7-274D-BC28-06961683D20E}"/>
+    <workbookView xWindow="5500" yWindow="3540" windowWidth="40100" windowHeight="20160" xr2:uid="{0FA298ED-DCA7-274D-BC28-06961683D20E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6D784-14E3-CF43-B83D-016E7ECE788B}">
-  <dimension ref="A1:AE97"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -468,7 +468,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -479,7 +479,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -488,92 +488,56 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E4">
         <f>10^D4</f>
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="J4">
-        <v>102.395888553234</v>
+        <v>3.1801647454734199</v>
       </c>
       <c r="K4">
-        <v>99.437004436365001</v>
+        <v>1.25986041371032</v>
       </c>
       <c r="L4">
-        <v>108.476852270484</v>
+        <v>2.5400633015523901</v>
       </c>
       <c r="M4">
-        <v>99.572959780502003</v>
+        <v>2.5682411988134</v>
       </c>
       <c r="N4">
-        <v>97.168973753893994</v>
+        <v>5.8708559698531699</v>
       </c>
       <c r="O4">
-        <v>96.838712276790005</v>
+        <v>3.8892871072293098</v>
       </c>
       <c r="P4">
-        <v>100.093168978892</v>
+        <v>3.9870084573048001</v>
       </c>
       <c r="Q4">
-        <v>97.153772509991001</v>
+        <v>4.3544330159174196</v>
       </c>
       <c r="R4">
-        <v>93.846951482478005</v>
+        <v>1.78246110562909</v>
       </c>
       <c r="S4">
         <f>AVERAGE(J4:R4)</f>
-        <v>99.442698226958882</v>
+        <v>3.2702639239425912</v>
       </c>
       <c r="T4">
-        <v>0.66004871058427217</v>
+        <v>0.22532614423199931</v>
       </c>
       <c r="U4">
         <f>(T4-T11)/(S4-S11)</f>
-        <v>4.9551179074341688E-3</v>
+        <v>0.11189534754945765</v>
       </c>
       <c r="V4">
         <f>(S4*T11-T4*S11)/(S4-S11)</f>
-        <v>0.16729841583629615</v>
-      </c>
-      <c r="W4">
-        <f>J4*$U$4+$V$4</f>
-        <v>0.67468211685405932</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4:AE11" si="0">K4*$U$4+$V$4</f>
-        <v>0.66002049718053923</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>0.70481400906386227</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="0"/>
-        <v>0.66069417194088387</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="0"/>
-        <v>0.64878213773121707</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>0.64714565317188344</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="0"/>
-        <v>0.66327186985543807</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="0"/>
-        <v>0.64870681377533801</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="0"/>
-        <v>0.63232112568522858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+        <v>-0.14060117411601011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1E-8</v>
       </c>
@@ -582,77 +546,41 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E11" si="1">10^D5</f>
-        <v>9.9999999999999995E-8</v>
+        <f t="shared" ref="E5:E11" si="0">10^D5</f>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J5">
-        <v>106.876598660681</v>
+        <v>3.8202661893944598</v>
       </c>
       <c r="K5">
-        <v>97.196649382641993</v>
+        <v>3.1801647454734199</v>
       </c>
       <c r="L5">
-        <v>96.23649721676</v>
+        <v>4.1403169113549696</v>
       </c>
       <c r="M5">
-        <v>98.582175349189995</v>
+        <v>4.8800715385412401</v>
       </c>
       <c r="N5">
-        <v>91.554528643126005</v>
+        <v>1.9077182446054399</v>
       </c>
       <c r="O5">
-        <v>114.857143414166</v>
+        <v>1.5774567675014599</v>
       </c>
       <c r="P5">
-        <v>96.786347951379</v>
+        <v>3.6195838986921798</v>
       </c>
       <c r="Q5">
-        <v>98.990895303054003</v>
+        <v>0.68018742979123004</v>
       </c>
       <c r="R5">
-        <v>94.949225158315997</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W11" si="2">J5*$U$4+$V$4</f>
-        <v>0.69688456374549124</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>0.64891927373482572</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>0.64416160654380217</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>0.65578471826288276</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>0.62096190022254438</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>0.73642910396456462</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>0.64688618176532864</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="0"/>
-        <v>0.65780997382539996</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="0"/>
-        <v>0.63778302171526668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+        <v>4.7218575745300404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -661,77 +589,41 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>1E-8</v>
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="J6">
-        <v>98.875330611668105</v>
+        <v>4.7804183552760096</v>
       </c>
       <c r="K6">
-        <v>96.876598660680997</v>
+        <v>3.5002154674339399</v>
       </c>
       <c r="L6">
-        <v>98.476852270484002</v>
+        <v>-2.0342474131749999E-2</v>
       </c>
       <c r="M6">
-        <v>99.903221257606006</v>
+        <v>0.58667233618952996</v>
       </c>
       <c r="N6">
-        <v>100.563744211814</v>
+        <v>3.8892871072293098</v>
       </c>
       <c r="O6">
-        <v>95.517666368373995</v>
+        <v>1.9077182446054399</v>
       </c>
       <c r="P6">
-        <v>98.256046185829007</v>
+        <v>-5.4661687434000003E-2</v>
       </c>
       <c r="Q6">
-        <v>94.949225158315997</v>
+        <v>-0.78951080465923995</v>
       </c>
       <c r="R6">
-        <v>96.418923392766004</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="2"/>
-        <v>0.65723733715364663</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
-        <v>0.64733338467114954</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>0.65526282998952057</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="0"/>
-        <v>0.66233065650021761</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>0.66560362561888498</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>0.64059971493454859</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>0.65416870980537623</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="0"/>
-        <v>0.63778302171526668</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="0"/>
-        <v>0.64506554975531427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <v>3.6195838986921798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1E-10</v>
       </c>
@@ -740,77 +632,41 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000001E-9</v>
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
       </c>
       <c r="J7">
-        <v>100.475584221471</v>
+        <v>0.93980969174980999</v>
       </c>
       <c r="K7">
-        <v>105.27634505087801</v>
+        <v>1.57991113567084</v>
       </c>
       <c r="L7">
-        <v>101.11568566539199</v>
+        <v>0.93980969174980999</v>
       </c>
       <c r="M7">
-        <v>99.242698303398001</v>
+        <v>4.5498100614372596</v>
       </c>
       <c r="N7">
-        <v>91.884790120229994</v>
+        <v>3.2287641530213498</v>
       </c>
       <c r="O7">
-        <v>92.875574551542002</v>
+        <v>2.5682411988134</v>
       </c>
       <c r="P7">
-        <v>97.233309427451005</v>
+        <v>-1.15693536327185</v>
       </c>
       <c r="Q7">
-        <v>94.214376041090006</v>
+        <v>3.2521593400795599</v>
       </c>
       <c r="R7">
-        <v>97.153772509991001</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>0.6651667824720171</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
-        <v>0.68895511842712032</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>0.66833856059936447</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="0"/>
-        <v>0.65905768738155024</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>0.62259838478187801</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>0.62750783845987912</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="0"/>
-        <v>0.6491009285793462</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="0"/>
-        <v>0.63414175769523795</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="0"/>
-        <v>0.64870681377533801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+        <v>2.1498856642417001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -819,77 +675,41 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>1E-10</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="J8">
-        <v>27.5040196144727</v>
+        <v>0.93980969174980999</v>
       </c>
       <c r="K8">
-        <v>27.824070336433302</v>
+        <v>1.8999618576313599</v>
       </c>
       <c r="L8">
-        <v>29.424323946235798</v>
+        <v>4.1403169113549696</v>
       </c>
       <c r="M8">
-        <v>35.264127432107202</v>
+        <v>-7.385061801843E-2</v>
       </c>
       <c r="N8">
-        <v>35.264127432107202</v>
+        <v>2.8985026759173702</v>
       </c>
       <c r="O8">
-        <v>30.640466752651498</v>
+        <v>1.9077182446054399</v>
       </c>
       <c r="P8">
-        <v>41.464313435791901</v>
+        <v>-0.78951080465923995</v>
       </c>
       <c r="Q8">
-        <v>34.850671380764801</v>
+        <v>0.31276287117862001</v>
       </c>
       <c r="R8">
-        <v>34.483246822152097</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>0.30358407595439041</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>0.30516996501806465</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>0.31309941033643318</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="0"/>
-        <v>0.34203632516517102</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>0.34203632516517102</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>0.31912554133450088</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>0.37275897786145185</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="0"/>
-        <v>0.33998760168122732</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="0"/>
-        <v>0.3381669696712144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1.78246110562909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -898,77 +718,41 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999994E-12</v>
+        <f t="shared" si="0"/>
+        <v>1E-10</v>
       </c>
       <c r="J9">
-        <v>12.860114023512899</v>
+        <v>-2.0342474131749999E-2</v>
       </c>
       <c r="K9">
-        <v>15.4205197991971</v>
+        <v>0.29970824782876998</v>
       </c>
       <c r="L9">
-        <v>12.540063301552401</v>
+        <v>2.2200125795918799</v>
       </c>
       <c r="M9">
-        <v>14.2195485843333</v>
+        <v>-7.385061801843E-2</v>
       </c>
       <c r="N9">
-        <v>13.5590256301253</v>
+        <v>0.58667233618952996</v>
       </c>
       <c r="O9">
-        <v>13.8892871072293</v>
+        <v>0.58667233618952996</v>
       </c>
       <c r="P9">
-        <v>16.1915558089805</v>
+        <v>1.4150365470164701</v>
       </c>
       <c r="Q9">
-        <v>13.6195838986922</v>
+        <v>-5.4661687434000003E-2</v>
       </c>
       <c r="R9">
-        <v>13.252159340079601</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="2"/>
-        <v>0.23102179712585019</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>0.24370890963524083</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>0.22943590806217651</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>0.23775795566215627</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>0.23448498654348887</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>0.23612147110282258</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="0"/>
-        <v>0.24752948397459518</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="0"/>
-        <v>0.23478505990450793</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="0"/>
-        <v>0.23296442789449556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>3.6195838986921798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -977,77 +761,41 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999998E-13</v>
+        <f t="shared" si="0"/>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="J10">
-        <v>10.6197589697893</v>
+        <v>1.8999618576313599</v>
       </c>
       <c r="K10">
-        <v>13.1801647454734</v>
+        <v>3.8202661893944598</v>
       </c>
       <c r="L10">
-        <v>10.939809691749799</v>
+        <v>0.61975896978929002</v>
       </c>
       <c r="M10">
-        <v>10.9169338132935</v>
+        <v>3.2287641530213498</v>
       </c>
       <c r="N10">
-        <v>13.2287641530214</v>
+        <v>3.2287641530213498</v>
       </c>
       <c r="O10">
-        <v>11.247195290397499</v>
+        <v>0.25641085908555</v>
       </c>
       <c r="P10">
-        <v>15.0892821331426</v>
+        <v>-5.4661687434000003E-2</v>
       </c>
       <c r="Q10">
-        <v>12.149885664241699</v>
+        <v>2.51731022285432</v>
       </c>
       <c r="R10">
-        <v>14.354433015917399</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="2"/>
-        <v>0.21992057368013374</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
-        <v>0.2326076861895239</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>0.22150646274380745</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="0"/>
-        <v>0.22139311006882034</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="0"/>
-        <v>0.23284850198415569</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
-        <v>0.22302959462815405</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="0"/>
-        <v>0.24206758794455752</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="0"/>
-        <v>0.22750253186445787</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="0"/>
-        <v>0.23842632392453272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v>3.2521593400795599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1056,84 +804,48 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>1E-13</v>
+        <f t="shared" si="0"/>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="J11">
-        <v>13.8202661893945</v>
+        <v>3.1801647454734199</v>
       </c>
       <c r="K11">
-        <v>12.540063301552401</v>
+        <v>3.1801647454734199</v>
       </c>
       <c r="L11">
-        <v>12.2200125795919</v>
+        <v>3.1801647454734199</v>
       </c>
       <c r="M11">
-        <v>11.9077182446054</v>
+        <v>1.2471952903974799</v>
       </c>
       <c r="N11">
-        <v>12.898502675917401</v>
+        <v>0.58667233618952996</v>
       </c>
       <c r="O11">
-        <v>13.5590256301253</v>
+        <v>0.58667233618952996</v>
       </c>
       <c r="P11">
-        <v>12.8847347814669</v>
+        <v>-0.42208624604661998</v>
       </c>
       <c r="Q11">
-        <v>11.0476119884038</v>
+        <v>1.4150365470164701</v>
       </c>
       <c r="R11">
-        <v>13.6195838986922</v>
+        <v>-0.78951080465923995</v>
       </c>
       <c r="S11">
-        <f>AVERAGE(J11:R11)</f>
-        <v>12.721946587749978</v>
+        <f>AVERAGE(J4:R11)</f>
+        <v>2.0272367428656235</v>
       </c>
       <c r="T11">
-        <v>0.2303371611906771</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>0.2357794643168718</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="0"/>
-        <v>0.22943590806217651</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>0.2278500189985028</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="0"/>
-        <v>0.22630256374682092</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="0"/>
-        <v>0.231212017424822</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="0"/>
-        <v>0.23448498654348887</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="0"/>
-        <v>0.23114379588448267</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="0"/>
-        <v>0.22204063583442021</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="0"/>
-        <v>0.23478505990450793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+        <v>8.6237185791969373E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1144,7 +856,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1E-8</v>
       </c>
@@ -1154,8 +866,44 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f>MAX(J4:J11)</f>
+        <v>4.7804183552760096</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:R13" si="1">MAX(K4:K11)</f>
+        <v>3.8202661893944598</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>4.1403169113549696</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>4.8800715385412401</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5.8708559698531699</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>3.8892871072293098</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>3.9870084573048001</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>4.3544330159174196</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>4.7218575745300404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1165,8 +913,44 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f>MIN(J4:J11)</f>
+        <v>-2.0342474131749999E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:R14" si="2">MIN(K4:K11)</f>
+        <v>0.29970824782876998</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>-2.0342474131749999E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>-7.385061801843E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.58667233618952996</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>0.25641085908555</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>-1.15693536327185</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>-0.78951080465923995</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>-0.78951080465923995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1E-10</v>
       </c>
@@ -1176,7 +960,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -1185,8 +969,48 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f>($T$4-$T$11)/(J13-J14)</f>
+        <v>2.8972274058732581E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:R16" si="3">($T$4-$T$11)/(K13-K14)</f>
+        <v>3.9507646443726251E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>3.3429546990845327E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>2.8076532905519546E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>2.6321749598924617E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>3.828618123479937E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>2.7039361877097188E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>2.7039361877097143E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>2.5236737751957321E-2</v>
+      </c>
+      <c r="S16">
+        <f>AVERAGE(J16:R16)</f>
+        <v>3.0434376970966594E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -1195,8 +1019,48 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f>(J13*$T$11-$T$4*J14)/(J13-J14)</f>
+        <v>8.6826553527547104E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:R17" si="4">(K13*$T$11-$T$4*K14)/(K13-K14)</f>
+        <v>7.4396418300481645E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>8.691722548686677E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>8.8310655098856772E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>7.0794943462172452E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>7.6420193170449402E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>0.1175199797478878</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0.1075850541450287</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>0.10616186292149142</v>
+      </c>
+      <c r="S17">
+        <f>AVERAGE(J17:R17)</f>
+        <v>9.0548098428975793E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1206,7 +1070,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1215,35 +1079,47 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="F19">
-        <v>0.65029708339580439</v>
-      </c>
-      <c r="G19">
-        <v>0.66619702701789607</v>
-      </c>
-      <c r="H19">
-        <v>0.68239061521589428</v>
-      </c>
       <c r="I19">
-        <v>0.65540237645103083</v>
+        <v>-5</v>
       </c>
       <c r="J19">
-        <v>0.65528646594501405</v>
+        <f>J4*$J$16+$J$17</f>
+        <v>0.17896315808532257</v>
       </c>
       <c r="K19">
-        <v>0.64579162653537014</v>
+        <f>K4*$K$16+$K$17</f>
+        <v>0.12417053809379565</v>
       </c>
       <c r="L19">
-        <v>0.66903374538273996</v>
+        <f>L4*$L$16+$L$17</f>
+        <v>0.17183039098583414</v>
       </c>
       <c r="M19">
-        <v>0.64172248201203841</v>
+        <f>M4*$M$16+$M$17</f>
+        <v>0.16041796362665217</v>
       </c>
       <c r="N19">
-        <v>0.67431697330266083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="K19:R19" si="5">N4*N16+N17</f>
+        <v>0.22532614423199931</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>0.22532614423199931</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>0.22532614423199929</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>0.22532614423199931</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>0.15114536639731666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1252,35 +1128,47 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="F20">
-        <v>0.66619702701789607</v>
-      </c>
-      <c r="G20">
-        <v>0.64817248516631565</v>
-      </c>
-      <c r="H20">
-        <v>0.64604788693682669</v>
-      </c>
       <c r="I20">
-        <v>0.70824892772818737</v>
+        <v>-6</v>
       </c>
       <c r="J20">
-        <v>0.65339908911368794</v>
+        <f t="shared" ref="J20:J26" si="6">J5*$J$16+$J$17</f>
+        <v>0.19750835254399338</v>
       </c>
       <c r="K20">
-        <v>0.65900326435465817</v>
+        <f t="shared" ref="K20:K26" si="7">K5*$K$16+$K$17</f>
+        <v>0.20003724269744821</v>
       </c>
       <c r="L20">
-        <v>0.67301804499937146</v>
+        <f t="shared" ref="L20:L26" si="8">L5*$L$16+$L$17</f>
+        <v>0.22532614423199931</v>
       </c>
       <c r="M20">
-        <v>0.65542187105077976</v>
+        <f t="shared" ref="M20:M26" si="9">M5*$M$16+$M$17</f>
+        <v>0.22532614423199929</v>
       </c>
       <c r="N20">
-        <v>0.65452674727966431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J20:R26" si="10">N5*N17+N18</f>
+        <v>0.13505680526859701</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="10"/>
+        <v>0.12054955089049425</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="10"/>
+        <v>0.42537342647008575</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="10"/>
+        <v>7.3178001462857384E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="10"/>
+        <v>0.50128119656206416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1E-8</v>
       </c>
@@ -1289,35 +1177,47 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="F21">
-        <v>0.63241936383217756</v>
-      </c>
-      <c r="G21">
-        <v>0.63439713977371293</v>
-      </c>
-      <c r="H21">
-        <v>0.66846844753533374</v>
-      </c>
       <c r="I21">
-        <v>0.5932348515232605</v>
+        <v>-7</v>
       </c>
       <c r="J21">
-        <v>0.58922827684856949</v>
+        <f t="shared" si="6"/>
+        <v>0.22532614423199931</v>
       </c>
       <c r="K21">
-        <v>0.63075056713776423</v>
+        <f t="shared" si="7"/>
+        <v>0.21268169346472376</v>
       </c>
       <c r="L21">
-        <v>0.58056155640081908</v>
+        <f t="shared" si="8"/>
+        <v>8.6237185791969373E-2</v>
       </c>
       <c r="M21">
-        <v>0.63997599182319576</v>
+        <f t="shared" si="9"/>
+        <v>0.10478238025064013</v>
       </c>
       <c r="N21">
-        <v>0.63030465975447403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0.22532614423199931</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="10"/>
+        <v>0.22532614423199931</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="10"/>
+        <v>0.22532614423199929</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="10"/>
+        <v>0.22532614423199931</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="10"/>
+        <v>0.15114536639731666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1326,35 +1226,47 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="F22">
-        <v>0.50477934799158453</v>
-      </c>
-      <c r="G22">
-        <v>0.49320201197244562</v>
-      </c>
-      <c r="H22">
-        <v>0.50968924474635324</v>
-      </c>
       <c r="I22">
-        <v>0.53649763607743428</v>
+        <v>-8</v>
       </c>
       <c r="J22">
-        <v>0.50629960677620311</v>
+        <f t="shared" si="6"/>
+        <v>0.11405497747997559</v>
       </c>
       <c r="K22">
-        <v>0.57613254953530058</v>
+        <f t="shared" si="7"/>
+        <v>0.13681498886107121</v>
       </c>
       <c r="L22">
-        <v>0.5264303488983586</v>
+        <f t="shared" si="8"/>
+        <v>0.1183346377396689</v>
       </c>
       <c r="M22">
-        <v>0.54886218888131433</v>
+        <f t="shared" si="9"/>
+        <v>0.21605354700266391</v>
       </c>
       <c r="N22">
-        <v>0.53650548549924704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0.86258178250339479</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="10"/>
+        <v>0.69924143767688518</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="10"/>
+        <v>0.16468564193839241</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="10"/>
+        <v>0.805974525991068</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="10"/>
+        <v>0.82622645299621444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1E-10</v>
       </c>
@@ -1364,140 +1276,189 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23">
-        <v>0.44139980693514996</v>
-      </c>
-      <c r="G23">
-        <v>0.46404060096558941</v>
-      </c>
-      <c r="H23">
-        <v>0.40513048980006083</v>
-      </c>
       <c r="I23">
-        <v>0.43457928718577948</v>
+        <v>-9</v>
       </c>
       <c r="J23">
-        <v>0.41765085095684651</v>
+        <f t="shared" si="6"/>
+        <v>0.11405497747997559</v>
       </c>
       <c r="K23">
-        <v>0.43452133193277065</v>
+        <f t="shared" si="7"/>
+        <v>0.14945943962834676</v>
       </c>
       <c r="L23">
-        <v>0.43527278860308977</v>
+        <f t="shared" si="8"/>
+        <v>0.22532614423199931</v>
       </c>
       <c r="M23">
-        <v>0.43486898407091951</v>
+        <f t="shared" si="9"/>
+        <v>8.6237185791969373E-2</v>
       </c>
       <c r="N23">
-        <v>0.38772373732383292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0.61678865570387886</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="10"/>
+        <v>0.45530072184478715</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
+        <v>-0.11051077198105616</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="10"/>
+        <v>0.24821350607663584</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="10"/>
+        <v>1.0446596022524066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9.9999999999999994E-12</v>
       </c>
       <c r="B24">
         <v>0.21693971444304916</v>
       </c>
-      <c r="F24">
-        <v>0.30760622983802466</v>
-      </c>
-      <c r="G24">
-        <v>0.33229821095397488</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.33017361272448692</v>
-      </c>
+      <c r="H24" s="2"/>
       <c r="I24">
-        <v>0.31939134522182744</v>
+        <v>-10</v>
       </c>
       <c r="J24">
-        <v>0.30045962165554918</v>
+        <f t="shared" si="6"/>
+        <v>8.6237185791969359E-2</v>
       </c>
       <c r="K24">
-        <v>0.33437444936642491</v>
+        <f t="shared" si="7"/>
+        <v>8.6237185791969373E-2</v>
       </c>
       <c r="L24">
-        <v>0.28470079288544375</v>
+        <f t="shared" si="8"/>
+        <v>0.16113124033660126</v>
       </c>
       <c r="M24">
-        <v>0.31394328316168363</v>
+        <f t="shared" si="9"/>
+        <v>8.6237185791969373E-2</v>
       </c>
       <c r="N24">
-        <v>0.35074114188441097</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0.9947743979445608</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>0.83143405311805119</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>0.48353037102497581</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="10"/>
+        <v>0.79365781872435004</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="10"/>
+        <v>1.3733097875698719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9.9999999999999998E-13</v>
       </c>
       <c r="B25">
         <v>0.21933484891397265</v>
       </c>
-      <c r="F25">
-        <v>0.24618978249432882</v>
-      </c>
-      <c r="G25">
-        <v>0.25300404404665344</v>
-      </c>
-      <c r="H25">
-        <v>0.24618978249432882</v>
-      </c>
       <c r="I25">
-        <v>0.2567420254723749</v>
+        <v>-11</v>
       </c>
       <c r="J25">
-        <v>0.23203226090609766</v>
+        <f t="shared" si="6"/>
+        <v>0.14187276916798153</v>
       </c>
       <c r="K25">
-        <v>0.26228824546033813</v>
+        <f t="shared" si="7"/>
+        <v>0.22532614423199931</v>
       </c>
       <c r="L25">
-        <v>0.22703284765190976</v>
+        <f t="shared" si="8"/>
+        <v>0.10763548709043573</v>
       </c>
       <c r="M25">
-        <v>0.28205917892548515</v>
+        <f t="shared" si="9"/>
+        <v>0.17896315808532265</v>
       </c>
       <c r="N25">
-        <v>0.25604684385806842</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>3.4018617941000984</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="10"/>
+        <v>0.63459381958773231</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>-0.11951276706556022</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="10"/>
+        <v>2.2771014197141164</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="10"/>
+        <v>3.7316796783848512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B26">
         <v>0.67890383166110957</v>
       </c>
-      <c r="F26">
-        <v>0.22347557731991222</v>
-      </c>
-      <c r="G26">
-        <v>0.2075756336978207</v>
-      </c>
-      <c r="H26">
-        <v>0.22362239960786656</v>
-      </c>
       <c r="I26">
-        <v>0.23409350349645172</v>
+        <v>-12</v>
       </c>
       <c r="J26">
-        <v>0.21893653359282686</v>
+        <f t="shared" si="6"/>
+        <v>0.17896315808532257</v>
       </c>
       <c r="K26">
-        <v>0.22271128725548112</v>
+        <f t="shared" si="7"/>
+        <v>0.20003724269744821</v>
       </c>
       <c r="L26">
-        <v>0.23845066990947317</v>
+        <f t="shared" si="8"/>
+        <v>0.19322869228430012</v>
       </c>
       <c r="M26">
-        <v>0.24548038801823396</v>
+        <f t="shared" si="9"/>
+        <v>0.12332757470931062</v>
       </c>
       <c r="N26">
-        <v>0.25868845781802746</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1.3566272395215551</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>1.0985463912715119</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
+        <v>0.53017544791817384</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="10"/>
+        <v>1.1448890012858843</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="10"/>
+        <v>0.54853974440057274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1505,7 +1466,7 @@
         <v>0.56609313673009343</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1513,7 +1474,7 @@
         <v>0.56183612937420613</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1E-8</v>
       </c>
@@ -1521,7 +1482,7 @@
         <v>0.54267959627271245</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1529,7 +1490,7 @@
         <v>0.32757000583941687</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1E-10</v>
       </c>
@@ -1537,7 +1498,7 @@
         <v>0.27448813285180595</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -1551,7 +1512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -1568,7 +1529,7 @@
         <v>8.6237185791969373E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1585,7 +1546,7 @@
         <v>2.2767871482924227E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1601,8 +1562,14 @@
       <c r="G35">
         <v>0.22532614423199931</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>5.7141555929370307E-2</v>
+      </c>
+      <c r="I35">
+        <v>-8.5486093913015926E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1618,8 +1585,14 @@
       <c r="G36">
         <v>0.17424815427777934</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>2.611992372764391E-2</v>
+      </c>
+      <c r="I36">
+        <v>2.9175663701843497E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1E-8</v>
       </c>
@@ -1635,8 +1608,14 @@
       <c r="G37">
         <v>0.18060027600488776</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>4.9181876907024573E-2</v>
+      </c>
+      <c r="I37">
+        <v>1.976255824406006E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1652,8 +1631,14 @@
       <c r="G38">
         <v>0.2317192684214518</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>5.0206856402424692E-2</v>
+      </c>
+      <c r="I38">
+        <v>-0.11134048524524659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1E-10</v>
       </c>
@@ -1669,8 +1654,14 @@
       <c r="G39">
         <v>0.22008555720936807</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>9.3400469173637868E-3</v>
+      </c>
+      <c r="I39">
+        <v>6.2821351654704941E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9.9999999999999994E-12</v>
       </c>
@@ -1686,8 +1677,14 @@
       <c r="G40">
         <v>0.39049093366736698</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>3.1640377258619276E-3</v>
+      </c>
+      <c r="I40">
+        <v>8.4020078299938225E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9.9999999999999998E-13</v>
       </c>
@@ -1703,8 +1700,14 @@
       <c r="G41">
         <v>0.69808135439830088</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>6.2457840638462008E-3</v>
+      </c>
+      <c r="I41">
+        <v>6.8086763789699578E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1720,8 +1723,14 @@
       <c r="G42">
         <v>0.68894958416737107</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>6.9500366058047221E-3</v>
+      </c>
+      <c r="I42">
+        <v>-2.1808086899854444E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>0.61930572867868594</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>0.59376368454336159</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1E-8</v>
       </c>
@@ -1745,7 +1754,7 @@
         <v>0.39794134617254073</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>0.31479898377175441</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1E-10</v>
       </c>
@@ -1761,7 +1770,7 @@
         <v>0.31479898377175441</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9.9999999999999994E-12</v>
       </c>
